--- a/Lab_5/ADAPT_Blueprint.xlsx
+++ b/Lab_5/ADAPT_Blueprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fammy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8069992B-E561-E84A-BFC7-47068E1D3265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD10CDD0-17DC-D541-94DA-453326ED0066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30200" windowHeight="17280" xr2:uid="{C5F2AE7F-2A01-4E3D-A1FD-0F4756AFC920}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17280" xr2:uid="{C5F2AE7F-2A01-4E3D-A1FD-0F4756AFC920}"/>
   </bookViews>
   <sheets>
     <sheet name="A-DAPT Blueprint" sheetId="1" r:id="rId1"/>
@@ -359,13 +359,13 @@
     <t>เชื่อมต่อ API Backend</t>
   </si>
   <si>
+    <t>ทำระบบ Backend Login</t>
+  </si>
+  <si>
+    <t>ทำระบบ Backend ค้นหารายวิชา</t>
+  </si>
+  <si>
     <t>1. มีช่องกรอก username และ password 2. แสดงข้อความเตือนที่ชัดเจนหากกรอก username หรือ password ผิด 3. มีไอคอนรูปดวงตาให้กดดู password ที่พิมพ์ลงไป 4. มีปุ่ม Login</t>
-  </si>
-  <si>
-    <t>ทำระบบ Backend Login</t>
-  </si>
-  <si>
-    <t>ทำระบบ Backend ค้นหารายวิชา</t>
   </si>
   <si>
     <t>แสดงรายชื่อวิชาที่ตรงกับที่ค้นหา</t>
@@ -423,7 +423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,12 +519,6 @@
       <color rgb="FF000000"/>
       <name val="THSarabunNew"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
@@ -873,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1038,29 +1032,29 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1082,19 +1076,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1113,11 +1107,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1137,13 +1128,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5375,7 +5363,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="ตัวเชื่อมต่อหักมุม 125">
+        <xdr:cNvPr id="59" name="ตัวเชื่อมต่อหักมุม 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F16461-1321-F3C6-3F69-EEB647CE86BF}"/>
@@ -5754,7 +5742,7 @@
     <xdr:ext cx="1283493" cy="271356"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="กล่องข้อความ 24">
+        <xdr:cNvPr id="53" name="กล่องข้อความ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2D53CC-A42F-121F-76B0-1D12ACFACE58}"/>
@@ -5808,17 +5796,17 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>311931</xdr:rowOff>
+      <xdr:rowOff>311930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>210845</xdr:colOff>
+      <xdr:colOff>210846</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>141528</xdr:rowOff>
+      <xdr:rowOff>141527</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="ตัวเชื่อมต่อหักมุม 31">
+        <xdr:cNvPr id="66" name="ตัวเชื่อมต่อหักมุม 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7E1B9E-2AAF-2289-EFBB-DD6756A3A943}"/>
@@ -5832,8 +5820,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="19575058" y="5595007"/>
-          <a:ext cx="591597" cy="5248511"/>
+          <a:off x="19533636" y="5625304"/>
+          <a:ext cx="592736" cy="5205988"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -5872,7 +5860,7 @@
     <xdr:ext cx="1800173" cy="271356"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="กล่องข้อความ 34">
+        <xdr:cNvPr id="130" name="กล่องข้อความ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D60DE2-0C11-DA4E-1B9C-A318AF518CBF}"/>
@@ -5928,19 +5916,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>187961</xdr:colOff>
+      <xdr:colOff>187962</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>343645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>640570</xdr:colOff>
+      <xdr:colOff>640571</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>142241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="ตัวเชื่อมต่อหักมุม 38">
+        <xdr:cNvPr id="149" name="ตัวเชื่อมต่อหักมุม 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB6E122-BA89-244D-4553-1069EFFE2590}"/>
@@ -5954,12 +5942,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="22418234" y="4622505"/>
-          <a:ext cx="560596" cy="7225942"/>
+          <a:off x="22355551" y="4658119"/>
+          <a:ext cx="561735" cy="7172788"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 24325"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -5996,7 +5984,7 @@
     <xdr:ext cx="1766125" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="กล่องข้อความ 48">
+        <xdr:cNvPr id="162" name="กล่องข้อความ 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F23F1FC-4298-799E-0201-1D7F33507BEB}"/>
@@ -6080,7 +6068,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="รูปแบบอิสระ 77">
+        <xdr:cNvPr id="191" name="รูปแบบอิสระ 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9705C749-C6DE-0EEE-AE7F-3CE7832472B5}"/>
@@ -6784,8 +6772,8 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="299" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7352,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8F482-35D4-7F4D-A673-99B751C602BA}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -7361,7 +7349,7 @@
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.6640625" customWidth="1"/>
-    <col min="4" max="4" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.6640625" customWidth="1"/>
     <col min="6" max="6" width="53.33203125" customWidth="1"/>
   </cols>
@@ -7650,7 +7638,7 @@
       <c r="C26" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="55" t="s">
         <v>71</v>
       </c>
       <c r="E26" s="59"/>
@@ -7664,7 +7652,7 @@
       <c r="C27" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="65" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="59"/>
@@ -7678,7 +7666,7 @@
       <c r="C28" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="66" t="s">
         <v>76</v>
       </c>
       <c r="E28" s="59"/>
@@ -7716,7 +7704,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -7820,7 +7808,7 @@
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="18">
-        <f xml:space="preserve"> SUM(C2+C3+C4+C5+C6+C7)</f>
+        <f xml:space="preserve"> SUM(C2:C7)</f>
         <v>160</v>
       </c>
     </row>
@@ -7836,8 +7824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE07E7AD-2065-0046-B078-B7BE14864188}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="23"/>
@@ -7875,7 +7863,7 @@
       <c r="A2" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="100" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="86" t="s">
@@ -7893,7 +7881,7 @@
       <c r="A3" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="100" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="89" t="s">
@@ -7911,7 +7899,7 @@
       <c r="A4" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="91" t="s">
@@ -7920,7 +7908,7 @@
       <c r="D4" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="92">
         <v>4</v>
       </c>
       <c r="F4" s="14"/>
@@ -7929,16 +7917,16 @@
       <c r="A5" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="100" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="93">
+      <c r="D5" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="92">
         <v>4</v>
       </c>
       <c r="F5" s="14"/>
@@ -7947,16 +7935,16 @@
       <c r="A6" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="92">
         <v>4</v>
       </c>
       <c r="F6" s="14"/>
@@ -7971,10 +7959,10 @@
       <c r="C7" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="93">
+      <c r="E7" s="92">
         <v>4</v>
       </c>
       <c r="F7" s="14"/>
@@ -7983,16 +7971,16 @@
       <c r="A8" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="96" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="93">
+      <c r="E8" s="92">
         <v>4</v>
       </c>
       <c r="F8" s="14"/>
@@ -8007,10 +7995,10 @@
       <c r="C9" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="92">
         <v>6</v>
       </c>
       <c r="F9" s="14"/>
@@ -8019,16 +8007,16 @@
       <c r="A10" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="91" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="93">
+      <c r="E10" s="92">
         <v>12</v>
       </c>
       <c r="F10" s="14"/>
@@ -8037,34 +8025,34 @@
       <c r="A11" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="103" t="s">
         <v>117</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="92">
         <v>20</v>
       </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="48">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="100" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="95" t="s">
+      <c r="C12" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="92">
         <v>20</v>
       </c>
       <c r="F12" s="14"/>
@@ -8073,16 +8061,16 @@
       <c r="A13" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="102" t="s">
         <v>119</v>
       </c>
       <c r="C13" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="92">
         <v>16</v>
       </c>
       <c r="F13" s="14"/>
@@ -8091,16 +8079,16 @@
       <c r="A14" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="92">
         <v>30</v>
       </c>
       <c r="F14" s="14"/>
@@ -8115,7 +8103,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lab_5/ADAPT_Blueprint.xlsx
+++ b/Lab_5/ADAPT_Blueprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fammy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kkumail-my.sharepoint.com/personal/onarpa_l_kkumail_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD10CDD0-17DC-D541-94DA-453326ED0066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2C3E7E-4EFB-422E-8AFA-7F94A08C4259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17280" xr2:uid="{C5F2AE7F-2A01-4E3D-A1FD-0F4756AFC920}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17280" activeTab="3" xr2:uid="{C5F2AE7F-2A01-4E3D-A1FD-0F4756AFC920}"/>
   </bookViews>
   <sheets>
     <sheet name="A-DAPT Blueprint" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="167">
   <si>
     <t>A-DAPT Blueprint</t>
   </si>
@@ -92,21 +92,39 @@
     <t xml:space="preserve">Project Name : </t>
   </si>
   <si>
+    <t>ระบบแสดงตารางสอบ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project ID : </t>
   </si>
   <si>
+    <t>P01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Story ID : </t>
   </si>
   <si>
+    <t>S01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last update :   </t>
   </si>
   <si>
+    <t>12/01/2026</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Strategy : </t>
   </si>
   <si>
+    <t>1. ค้นหาด้วยรหัสรายวิชา แล้วแสดงผลถูกต้อง 2. ตัวกรอง (คณะ, ปีการศึกษา) ต้องสัมพันธ์กัน 3. ข้อมูลที่แสดงผล (วัน/เวลา/ห้องสอบ) ต้องตรงกับฐานข้อมูล 4. ตารางสอบต้องอ่านรู้เรื่องทั้งบนมือถือ แท็บเล็ต และคอมพิวเตอร์</t>
+  </si>
+  <si>
     <t xml:space="preserve">Designer : </t>
   </si>
   <si>
+    <t>นายกฤตยชญ์ มัตกิจ, นายสิทธิพรรธน์ ตันพิบูลย์, นายตะวัน อุตมาน, นายนิติธร คชรัตน์, นางสาวอรอาภา เหล่าชัย, นายเอกสิทธิ์ พินิจมนตรี</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Environtment : </t>
   </si>
   <si>
@@ -128,6 +146,87 @@
     <t>Status (Pass/Fail/No run)</t>
   </si>
   <si>
+    <t>No Login</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>กดปุ่มค้นหารายวิชา</t>
+  </si>
+  <si>
+    <t>เข้าสู่หน้าค้นหารายวิชา</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>กรอกรหัสวิชาที่ถูกต้องด้วยรหัสวิชาแบบเต็ม Input = CP353002</t>
+  </si>
+  <si>
+    <t>แสดงหน้าข้อมูลของวิชาที่ค้นหา</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>กรอกรหัสวิชาที่ถูกต้องด้วยรหัสวิชาแบบ 5 ตัวแรก Input = CP353</t>
+  </si>
+  <si>
+    <t>แสดงรายชื่อวิชาที่รหัส 5 ตัวแรกตรงกัน</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>กรอกรหัสวิชาที่ไม่มีในฐานข้อมูล</t>
+  </si>
+  <si>
+    <t>ขึ้นข้อความ "ไม่พบรายวิชานี้"</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>กรอกรหัสวิชาที่ไม่ตรงตามรูปแบบ Ex."CP3530", "CP"</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>กดไปที่ชื่อรายวิชาที่ต้องการ</t>
+  </si>
+  <si>
+    <t>1. ทดสอบการเข้าสู่ระบบด้วยช่องทางต่างๆ 2. ตารางสอบที่แสดงต้องตรงกับวิชาที่ลงทะเบียนเรียนจริงของนักศึกษาคนนั้นในเทอมปัจจุบัน 3. ข้อมูลที่แสดงผล (วัน/เวลา/ห้องสอบ) ต้องตรงกับฐานข้อมูล 4. ตารางสอบต้องอ่านรู้เรื่องทั้งบนมือถือ แท็บเล็ต และคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>กดปุุ่มเข้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>เข้าสู่หน้า login</t>
+  </si>
+  <si>
+    <t>กรอก username และ password ถูกต้อง</t>
+  </si>
+  <si>
+    <t>เข้าสู่หน้า home</t>
+  </si>
+  <si>
+    <t>กรอก username หรือ password ไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>ยังคงอยู่ที่หน้าเข้าสู่ระบบ และขึ้นข้อความ "username ไม่ถูกต้อง" หรือ "password ไม่ถูกต้อง"</t>
+  </si>
+  <si>
+    <t>กดปุ่ม ตารางสอบ</t>
+  </si>
+  <si>
+    <t>แสดงตารางสอบของ user นั้น</t>
+  </si>
+  <si>
     <t>รายชื่อสมาชิก</t>
   </si>
   <si>
@@ -194,226 +293,255 @@
     <t>Committed at Sprint no.</t>
   </si>
   <si>
-    <t>No Login</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>กดปุ่มค้นหารายวิชา</t>
-  </si>
-  <si>
-    <t>เข้าสู่หน้าค้นหารายวิชา</t>
-  </si>
-  <si>
-    <t>กรอกรหัสวิชาที่ถูกต้องด้วยรหัสวิชาแบบเต็ม Input = CP353002</t>
-  </si>
-  <si>
-    <t>กรอกรหัสวิชาที่ถูกต้องด้วยรหัสวิชาแบบ 5 ตัวแรก Input = CP353</t>
-  </si>
-  <si>
-    <t>แสดงหน้าข้อมูลของวิชาที่ค้นหา</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>กรอกรหัสวิชาที่ไม่มีในฐานข้อมูล</t>
-  </si>
-  <si>
-    <t>แสดงรายชื่อวิชาที่รหัส 5 ตัวแรกตรงกัน</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>กรอกรหัสวิชาที่ไม่ตรงตามรูปแบบ Ex."CP3530", "CP"</t>
-  </si>
-  <si>
-    <t>ขึ้นข้อความ "ไม่พบรายวิชานี้"</t>
-  </si>
-  <si>
-    <t>กดไปที่ชื่อรายวิชาที่ต้องการ</t>
-  </si>
-  <si>
-    <t>ระบบแสดงตารางสอบ</t>
-  </si>
-  <si>
-    <t>กรอก username และ password ถูกต้อง</t>
-  </si>
-  <si>
-    <t>เข้าสู่หน้า home</t>
-  </si>
-  <si>
-    <t>ยังคงอยู่ที่หน้าเข้าสู่ระบบ และขึ้นข้อความ "username ไม่ถูกต้อง" หรือ "password ไม่ถูกต้อง"</t>
-  </si>
-  <si>
-    <t>เข้าสู่หน้า login</t>
-  </si>
-  <si>
-    <t>กรอก username หรือ password ไม่ถูกต้อง</t>
-  </si>
-  <si>
-    <t>กดปุ่ม ตารางสอบ</t>
-  </si>
-  <si>
-    <t>แสดงตารางสอบของ user นั้น</t>
-  </si>
-  <si>
-    <t>กดปุุ่มเข้าสู่ระบบ</t>
-  </si>
-  <si>
-    <t>P01</t>
-  </si>
-  <si>
-    <t>12/01/2026</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>นายกฤตยชญ์ มัตกิจ, นายสิทธิพรรธน์ ตันพิบูลย์, นายตะวัน อุตมาน, นายนิติธร คชรัตน์, นางสาวอรอาภา เหล่าชัย, นายเอกสิทธิ์ พินิจมนตรี</t>
-  </si>
-  <si>
-    <t>1. ค้นหาด้วยรหัสรายวิชา แล้วแสดงผลถูกต้อง 2. ตัวกรอง (คณะ, ปีการศึกษา) ต้องสัมพันธ์กัน 3. ข้อมูลที่แสดงผล (วัน/เวลา/ห้องสอบ) ต้องตรงกับฐานข้อมูล 4. ตารางสอบต้องอ่านรู้เรื่องทั้งบนมือถือ แท็บเล็ต และคอมพิวเตอร์</t>
-  </si>
-  <si>
     <t>T01</t>
   </si>
   <si>
-    <t>ทำหน้า login</t>
-  </si>
-  <si>
-    <t>ทำหน้า home</t>
-  </si>
-  <si>
     <t>ออกแบบหน้าเว็บ</t>
   </si>
   <si>
-    <t>ออกแบบ Database</t>
-  </si>
-  <si>
-    <t>ทำหน้าแสดงข้อมูลรายวิชา</t>
-  </si>
-  <si>
-    <t>ทำหน้าแสดงรายวิชาที่ค้นหา</t>
-  </si>
-  <si>
-    <t>ทำหน้าค้นหารายวิชา</t>
+    <t>ออกแบบหน้าเว็บไซต์สำหรับระบบแสดงตารางสอบ</t>
   </si>
   <si>
     <t>T02</t>
   </si>
   <si>
-    <t>ทำหน้าแสดงตารางสอบ</t>
-  </si>
-  <si>
-    <t>Set up Database</t>
+    <t>ออกแบบ ER Diagram และวิเคราะห์ระบบ</t>
+  </si>
+  <si>
+    <t>1. วิเคราะห์ความต้องการของระบบ ได้แก่ แสดงตารางสอบ, ผู้ดูแลระบบสามารถ เพิ่ม/แก้ไข/ลบ ตารางสอบ, ตารางสอบประกอบด้วยวิชา วันสอบ เวลาสอบ ห้องสอบ, ตารางสอบเชื่อมโยงกับรายวิชา อาจารย์ และกลุ่มเรียน
+2. ระบุ Entities 
+3. กำหนด Attributes ของ Entities
+4. ระบุความสัมพันธ์ระหว่าง Entities
+5. กำหนด Cardinality และ Participation</t>
   </si>
   <si>
     <t>T03</t>
   </si>
   <si>
+    <t>ออกแบบ Schema</t>
+  </si>
+  <si>
+    <t>ออกแบบ schema ของ database รวมถึงการกำหนด key</t>
+  </si>
+  <si>
     <t>T04</t>
   </si>
   <si>
+    <t>ทำหน้า Home Front end</t>
+  </si>
+  <si>
+    <t>มีปุ่มค้นหารายวิชาและมีปุ่มเข้าสู่ระบบ</t>
+  </si>
+  <si>
     <t>T05</t>
   </si>
   <si>
+    <t>ทำหน้า Login Front end</t>
+  </si>
+  <si>
+    <t>1. มีช่องกรอก username และ password 2. แสดงข้อความเตือนที่ชัดเจนหากกรอก username หรือ password ผิด 3. มีไอคอนรูปดวงตาให้กดดู password ที่พิมพ์ลงไป 4. มีปุ่ม Login</t>
+  </si>
+  <si>
     <t>T06</t>
   </si>
   <si>
+    <t>ทำหน้าค้นหารายวิชา Front end</t>
+  </si>
+  <si>
+    <t>ในช่องค้นหา ให้มีช่องกรอกรหัสวิชา</t>
+  </si>
+  <si>
     <t>T07</t>
   </si>
   <si>
+    <t>ทำหน้าแสดงรายวิชาที่ค้นหา Front end</t>
+  </si>
+  <si>
+    <t>แสดงรายวิชาทั้งหมดที่ค้นหาเจอ และสามารถกดเข้าไปดูรายละเอียดวิชาได้</t>
+  </si>
+  <si>
     <t>T08</t>
   </si>
   <si>
+    <t>ทำหน้าแสดงข้อมูลรายวิชา Front end</t>
+  </si>
+  <si>
+    <t>แสดงรายชื่อวิชาที่ตรงกับที่ค้นหา</t>
+  </si>
+  <si>
     <t>T09</t>
   </si>
   <si>
-    <t>ออกแบบหน้าเว็บไซต์สำหรับระบบแสดงตารางสอบ</t>
-  </si>
-  <si>
-    <t>ทดสอบระบบ</t>
-  </si>
-  <si>
-    <t>1. SubjID : เก็บข้อมูลรหัสวิชา 2. SubjName : เก็บข้อมูลชื่อวิชา 3. Section : เก็บข้อมูลกลุ่มการเรียน 4. Date : เก็บข้อมูลวันที่และเวลาสอบ</t>
-  </si>
-  <si>
-    <t>เชื่อมต่อ API Backend</t>
-  </si>
-  <si>
-    <t>ทำระบบ Backend Login</t>
-  </si>
-  <si>
-    <t>ทำระบบ Backend ค้นหารายวิชา</t>
-  </si>
-  <si>
-    <t>1. มีช่องกรอก username และ password 2. แสดงข้อความเตือนที่ชัดเจนหากกรอก username หรือ password ผิด 3. มีไอคอนรูปดวงตาให้กดดู password ที่พิมพ์ลงไป 4. มีปุ่ม Login</t>
-  </si>
-  <si>
-    <t>แสดงรายชื่อวิชาที่ตรงกับที่ค้นหา</t>
-  </si>
-  <si>
-    <t>แสดงรายวิชาทั้งหมดที่ค้นหาเจอ และสามารถกดเข้าไปดูรายละเอียดวิชา</t>
-  </si>
-  <si>
-    <t>มีปุ่มค้นหารายวิชาและมีปุ่มเข้าสู่ระบบ</t>
-  </si>
-  <si>
-    <t>สร้าง Database ตามที่ได้ออกแบบไว้</t>
-  </si>
-  <si>
-    <t>มีช่องให้กรอกรหัสวิชา</t>
-  </si>
-  <si>
-    <t>ทำระบบ login ให้มีการเข้ารหัสเพื่อความปลอดภัย</t>
-  </si>
-  <si>
-    <t>แสดงตาราง วันและเวลาสอบ</t>
-  </si>
-  <si>
-    <t>ทำระบบค้นหาทั้ง 2 กรณี (ใส่รหัสครบ กับใส่ 5 ตัว)</t>
+    <t>ทำหน้าแสดงตารางสอบ Front end</t>
+  </si>
+  <si>
+    <t>แสดงตาราง วันที่สอบ และเวลาสอบ</t>
   </si>
   <si>
     <t>T10</t>
   </si>
   <si>
+    <t>Set up database</t>
+  </si>
+  <si>
+    <t>database ของระบบแสดงตารางสอบ ประกอบด้วย Student (นักศึกษา), Teacher (อาจารย์), Subject (รายวิชา), Room (ห้องสอบ), ExamSchedule (ตารางสอบ), Enrollment (การลงทะเบียนเรียน)</t>
+  </si>
+  <si>
     <t>T11</t>
   </si>
   <si>
+    <t>สร้าง table ตาม schema</t>
+  </si>
+  <si>
+    <t>สร้าง Table ตาม schema ที่ได้ออกแบบไว้</t>
+  </si>
+  <si>
     <t>T12</t>
   </si>
   <si>
+    <t>ทำ API login</t>
+  </si>
+  <si>
+    <t>พัฒนา API สำหรับยืนยันตัวตน (Authentication)</t>
+  </si>
+  <si>
     <t>T13</t>
   </si>
   <si>
-    <t>1. ทดสอบการเข้าสู่ระบบด้วยช่องทางต่างๆ 2. ตารางสอบที่แสดงต้องตรงกับวิชาที่ลงทะเบียนเรียนจริงของนักศึกษาคนนั้นในเทอมปัจจุบัน 3. ข้อมูลที่แสดงผล (วัน/เวลา/ห้องสอบ) ต้องตรงกับฐานข้อมูล 4. ตารางสอบต้องอ่านรู้เรื่องทั้งบนมือถือ แท็บเล็ต และคอมพิวเตอร์</t>
-  </si>
-  <si>
-    <t>S01, S02</t>
-  </si>
-  <si>
-    <t>ทดสอบการทำงานและทดสอบ Test case</t>
-  </si>
-  <si>
-    <t>เชื่อม API ระหว่าง Front end และ Back end</t>
+    <t>Password hashing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เขียน function สำหรับเข้ารหัสผ่านของผู้ใช้ </t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>JWT / session</t>
+  </si>
+  <si>
+    <t>สร้าง Token สำหรับการ Login ใช้งานและกำหนดเวลา Session หมดอายุการใช้งาน</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>API ดึงรายวิชา</t>
+  </si>
+  <si>
+    <t>เชื่อมต่อหลังบ้านด้วย API สำหรับการดึงข้อมูลรายวิชา</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>เชื่อม API login</t>
+  </si>
+  <si>
+    <t>เชื่อมต่อส่วน UI ค้นหากับ API login</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>เชื่อม API ค้นหารายวิชา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เชื่อมต่อส่วน UI ค้นหากับ API </t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>Unit test (backend)</t>
+  </si>
+  <si>
+    <t>สร้้างทดการสอบ Class ย่อยในแต่ละส่วนย่อยของโค้ด</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>API test (Postman)</t>
+  </si>
+  <si>
+    <t>ทดสอบการใช้ API ทุกรูปแบบที่ใช้งานผ่าน Postman</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>Integration test frontend-backend</t>
+  </si>
+  <si>
+    <t>สร้างการทดสอบโดยรวม Integration ของ test ต่าง ๆ</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>Performance test</t>
+  </si>
+  <si>
+    <t>ทดสอบ loading และ respond time</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>Security test</t>
+  </si>
+  <si>
+    <t>ทดสอบความปลอดภัยของเว็บไซต์</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>ทดสอบ UAT และบันทึกผล</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>Set up Sever for Deploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up sever </t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>Deploy web site</t>
+  </si>
+  <si>
+    <t>ตรวจสอบว่าระบบ Frontend, ระบบ Backend, Database ทำงานถูกต้องในเครื่อง Local แล้ว ไม่มี Error เชื่อมต่อฐานข้อมูลได้
+และ API สามารถดึงข้อมูลตารางสอบได้</t>
+  </si>
+  <si>
+    <t>เขียน Document สำหรับการสื่อสาร</t>
+  </si>
+  <si>
+    <t>จัดทำคู่มือการใช้้งาน รายละเอียดการทำงาน สเปกการทำงานเพื่อสื่อสารกับคนในทีม</t>
+  </si>
+  <si>
+    <t>เขีียน Test report</t>
+  </si>
+  <si>
+    <t>สรุปผลการทดสอบทั้งหมด</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>เขียน User manual</t>
+  </si>
+  <si>
+    <t>จัดทำคู่มือการใช้งานของลูกค้า</t>
   </si>
   <si>
     <t>รวมเวลาการทำงานทั้งหมด</t>
@@ -423,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,12 +649,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="THSarabunNew"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -546,9 +668,30 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="THSarabunNew"/>
+      <name val="TH SarabunPSK"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
     </font>
   </fonts>
   <fills count="4">
@@ -571,7 +714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -771,19 +914,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -841,33 +971,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -894,10 +1002,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,6 +1030,51 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -962,98 +1111,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1076,79 +1150,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6466,14 +6513,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีม Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6511,7 +6554,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6617,7 +6660,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6759,7 +6802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6772,23 +6815,23 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="35">
+    <row r="1" spans="1:24" ht="35.1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="50" customHeight="1">
+    <row r="2" spans="1:24" ht="50.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -6809,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="50" customHeight="1">
+    <row r="3" spans="1:24" ht="50.1" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -6823,13 +6866,13 @@
       <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="5" spans="1:24" ht="30" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -6844,157 +6887,157 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
     </row>
     <row r="6" spans="1:24" ht="30" customHeight="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="44"/>
       <c r="K6" s="4"/>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="25"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
     </row>
     <row r="7" spans="1:24" ht="30" customHeight="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="44"/>
       <c r="K7" s="4"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="22"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="20"/>
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="44"/>
       <c r="K8" s="4"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="22"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="20"/>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="44"/>
       <c r="K9" s="4"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="22"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="22"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="44"/>
       <c r="K11" s="4"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="27" t="s">
+      <c r="M11" s="51"/>
+      <c r="N11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="22"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="44"/>
       <c r="K12" s="4"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="22"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="20"/>
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="44"/>
       <c r="K13" s="4"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="22"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="20"/>
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -7005,21 +7048,21 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="22"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="1:24" ht="30" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -7034,243 +7077,243 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="3"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="22"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="20"/>
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="46"/>
       <c r="K16" s="4"/>
-      <c r="M16" s="40" t="s">
+      <c r="M16" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="22"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="20"/>
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1">
-      <c r="A17" s="33"/>
+      <c r="A17" s="46"/>
       <c r="K17" s="4"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="22"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="20"/>
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="46"/>
       <c r="K18" s="4"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="22"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="20"/>
     </row>
     <row r="19" spans="1:24" ht="30" customHeight="1">
-      <c r="A19" s="33"/>
+      <c r="A19" s="46"/>
       <c r="K19" s="4"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="22"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="20"/>
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1">
-      <c r="A20" s="33"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K20" s="4"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="22"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="20"/>
     </row>
     <row r="21" spans="1:24" ht="30" customHeight="1">
-      <c r="A21" s="33"/>
+      <c r="A21" s="46"/>
       <c r="K21" s="4"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="27" t="s">
+      <c r="M21" s="51"/>
+      <c r="N21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="22"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="20"/>
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1">
-      <c r="A22" s="33"/>
+      <c r="A22" s="46"/>
       <c r="K22" s="4"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="22"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="20"/>
     </row>
     <row r="23" spans="1:24" ht="30" customHeight="1">
-      <c r="A23" s="33"/>
+      <c r="A23" s="46"/>
       <c r="K23" s="4"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="22"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="20"/>
     </row>
     <row r="24" spans="1:24" ht="30" customHeight="1">
-      <c r="A24" s="33"/>
+      <c r="A24" s="46"/>
       <c r="K24" s="4"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="22"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="20"/>
     </row>
     <row r="25" spans="1:24" ht="30" customHeight="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="4"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="22"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="20"/>
     </row>
     <row r="26" spans="1:24" ht="30" customHeight="1">
-      <c r="A26" s="33"/>
+      <c r="A26" s="46"/>
       <c r="K26" s="4"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="27" t="s">
+      <c r="M26" s="51"/>
+      <c r="N26" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="22"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="20"/>
     </row>
     <row r="27" spans="1:24" ht="30" customHeight="1">
-      <c r="A27" s="33"/>
+      <c r="A27" s="46"/>
       <c r="K27" s="4"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="22"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="20"/>
     </row>
     <row r="28" spans="1:24" ht="30" customHeight="1">
-      <c r="A28" s="33"/>
+      <c r="A28" s="46"/>
       <c r="K28" s="4"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="22"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="20"/>
     </row>
     <row r="29" spans="1:24" ht="30" customHeight="1">
-      <c r="A29" s="33"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -7281,46 +7324,46 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="22"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="20"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="M30" s="41"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="22"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="20"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7344,27 +7387,27 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="44.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.625" customWidth="1"/>
+    <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:6" ht="23.1">
+      <c r="A1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:6" ht="23">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="1:6" ht="23.1">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7373,182 +7416,182 @@
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="21">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72" t="s">
+      <c r="B3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="73"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6" ht="21">
-      <c r="A4" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="77"/>
+      <c r="A4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6" ht="84" customHeight="1">
-      <c r="A5" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="82"/>
-    </row>
-    <row r="6" spans="1:6" ht="23">
-      <c r="A6" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
+      <c r="A5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="69"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.1">
+      <c r="A6" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="39" customHeight="1">
-      <c r="A8" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>28</v>
+      <c r="A8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="42">
+      <c r="A10" s="56"/>
+      <c r="B10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="42">
+      <c r="A11" s="56"/>
+      <c r="B11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001">
+      <c r="A12" s="56"/>
+      <c r="B12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001">
+      <c r="A13" s="56"/>
+      <c r="B13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001">
+      <c r="A14" s="57"/>
+      <c r="B14" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:6" ht="42">
-      <c r="A10" s="57"/>
-      <c r="B10" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-    </row>
-    <row r="11" spans="1:6" ht="42">
-      <c r="A11" s="57"/>
-      <c r="B11" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-    </row>
-    <row r="12" spans="1:6" ht="20">
-      <c r="A12" s="57"/>
-      <c r="B12" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-    </row>
-    <row r="13" spans="1:6" ht="20">
-      <c r="A13" s="57"/>
-      <c r="B13" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-    </row>
-    <row r="14" spans="1:6" ht="20">
-      <c r="A14" s="60"/>
-      <c r="B14" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-    </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1"/>
+      <c r="D14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1"/>
     <row r="16" spans="1:6" ht="21.75" customHeight="1"/>
     <row r="18" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-    </row>
-    <row r="19" spans="1:6" ht="23">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+    </row>
+    <row r="19" spans="1:6" ht="23.1">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -7556,124 +7599,133 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:6" ht="25.5">
+      <c r="A20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72" t="s">
+      <c r="B20" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="73"/>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A21" s="72" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="72" t="s">
+      <c r="E20" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="77"/>
+      <c r="F20" s="61"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.25">
+      <c r="A21" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" ht="82.5" customHeight="1">
-      <c r="A22" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="82"/>
+      <c r="A22" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="69"/>
     </row>
     <row r="23" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A23" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-    </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1">
-      <c r="A25" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-    </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="55" t="s">
+      <c r="A23" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A25" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="B25" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A26" s="56"/>
+      <c r="B26" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" ht="63">
-      <c r="A27" s="57"/>
-      <c r="B27" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-    </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A28" s="57"/>
+      <c r="B28" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A18:F18"/>
@@ -7685,15 +7737,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7707,107 +7750,107 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="30.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="31.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="44.125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="58">
-      <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="1:3" ht="57.95">
+      <c r="A1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="16">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="18">
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="18">
-        <v>30</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" ht="30" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="A7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="18">
+      <c r="A10" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="16">
         <f xml:space="preserve"> SUM(C2:C7)</f>
         <v>160</v>
       </c>
@@ -7822,286 +7865,561 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE07E7AD-2065-0046-B078-B7BE14864188}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="23"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="23.1"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="13" customWidth="1"/>
     <col min="3" max="3" width="41" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="49.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1">
-      <c r="A1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="48">
-      <c r="A2" s="51" t="s">
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="30">
+      <c r="A1" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="D1" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="82">
+        <v>6</v>
+      </c>
+      <c r="F2" s="82"/>
+    </row>
+    <row r="3" spans="1:6" ht="343.5" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="C3" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="82">
+        <v>6</v>
+      </c>
+      <c r="F3" s="82"/>
+    </row>
+    <row r="4" spans="1:6" ht="54.75" customHeight="1">
+      <c r="A4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="82">
+        <v>4</v>
+      </c>
+      <c r="F4" s="82"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="82">
+        <v>4</v>
+      </c>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="1:6" ht="114.75" customHeight="1">
+      <c r="A6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="82">
+        <v>4</v>
+      </c>
+      <c r="F6" s="82"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="82">
+        <v>4</v>
+      </c>
+      <c r="F7" s="82"/>
+    </row>
+    <row r="8" spans="1:6" ht="60.75">
+      <c r="A8" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="88">
-        <v>12</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="95" customHeight="1">
-      <c r="A3" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="90" t="s">
+      <c r="C8" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="88">
-        <v>12</v>
-      </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="28" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="E8" s="82">
+        <v>4</v>
+      </c>
+      <c r="F8" s="82"/>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="82">
+        <v>4</v>
+      </c>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="82">
+        <v>4</v>
+      </c>
+      <c r="F10" s="82"/>
+    </row>
+    <row r="11" spans="1:6" ht="168.75" customHeight="1">
+      <c r="A11" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="82">
+        <v>6</v>
+      </c>
+      <c r="F11" s="82"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A12" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="82">
+        <v>6</v>
+      </c>
+      <c r="F12" s="82"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="82">
+        <v>8</v>
+      </c>
+      <c r="F13" s="82"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="92">
+      <c r="E14" s="82">
         <v>4</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="140" customHeight="1">
-      <c r="A5" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="92">
+      <c r="F14" s="82"/>
+    </row>
+    <row r="15" spans="1:6" ht="60.75">
+      <c r="A15" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="82">
+        <v>6</v>
+      </c>
+      <c r="F15" s="82"/>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="82">
+        <v>8</v>
+      </c>
+      <c r="F16" s="82"/>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="82">
+        <v>8</v>
+      </c>
+      <c r="F17" s="82"/>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="82">
+        <v>8</v>
+      </c>
+      <c r="F18" s="82"/>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="82">
+        <v>8</v>
+      </c>
+      <c r="F19" s="82"/>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="82">
+        <v>8</v>
+      </c>
+      <c r="F20" s="82"/>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="82">
+        <v>8</v>
+      </c>
+      <c r="F21" s="82"/>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="82">
+        <v>8</v>
+      </c>
+      <c r="F22" s="82"/>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="82">
+        <v>8</v>
+      </c>
+      <c r="F23" s="82"/>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="82">
+        <v>6</v>
+      </c>
+      <c r="F24" s="82"/>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="82">
         <v>4</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="24">
-      <c r="A6" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="92">
+      <c r="F25" s="82"/>
+    </row>
+    <row r="26" spans="1:6" ht="120.75">
+      <c r="A26" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="82">
+        <v>2</v>
+      </c>
+      <c r="F26" s="82"/>
+    </row>
+    <row r="27" spans="1:6" ht="60.75">
+      <c r="A27" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="82">
         <v>4</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="49" customHeight="1">
-      <c r="A7" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="92">
+      <c r="F27" s="82"/>
+    </row>
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="82">
         <v>4</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="24">
-      <c r="A8" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="92">
+      <c r="F28" s="82"/>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="82">
         <v>4</v>
       </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="92">
-        <v>6</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="92">
-        <v>12</v>
-      </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="48">
-      <c r="A11" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="92">
-        <v>20</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="48">
-      <c r="A12" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="92">
-        <v>20</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A13" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="92">
-        <v>16</v>
-      </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="48">
-      <c r="A14" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="92">
-        <v>30</v>
-      </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="83">
-        <f>SUM(E2:E14)</f>
-        <v>148</v>
-      </c>
-    </row>
+      <c r="F29" s="82"/>
+    </row>
+    <row r="30" spans="1:6" ht="27">
+      <c r="D30" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="81">
+        <f>SUM(E2:E29)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23.25"/>
+    <row r="32" spans="1:6" ht="23.25"/>
+    <row r="33" ht="23.25"/>
+    <row r="34" ht="23.25"/>
+    <row r="35" ht="23.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
